--- a/data/trans_bre/POLIPATOLOGIA_2-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_2-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>15.0112182281425</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11.05157941439733</v>
+        <v>11.05157941439734</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5893578180656287</v>
@@ -649,7 +649,7 @@
         <v>0.6488743082258488</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3023320072808293</v>
+        <v>0.3023320072808295</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.76991399217724</v>
+        <v>6.385287958910041</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>11.8368277396378</v>
+        <v>12.27001313774867</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.31319993201282</v>
+        <v>10.10386988399405</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.016386762862146</v>
+        <v>6.229527532606769</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2763861283190046</v>
+        <v>0.2921871206720424</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4274042130278943</v>
+        <v>0.4363244645201942</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4032816573150108</v>
+        <v>0.3928367534520077</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.1578200790225654</v>
+        <v>0.1585031397712713</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>15.4585216723121</v>
+        <v>15.63497306158995</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>22.32257264432801</v>
+        <v>22.69369442381866</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>20.16849695902014</v>
+        <v>20.27664079013309</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.90008670015946</v>
+        <v>15.54646861129341</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.9249823400721116</v>
+        <v>0.9377107728364333</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9713204610326998</v>
+        <v>0.9650743883455589</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9829174937246142</v>
+        <v>0.9582102435430202</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.4798500437990058</v>
+        <v>0.4668215933085456</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>14.16514351481739</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>16.54513191058094</v>
+        <v>16.54513191058095</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7006841828856658</v>
@@ -749,7 +749,7 @@
         <v>0.6105958963541993</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.5824144950600747</v>
+        <v>0.5824144950600749</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>9.901578523762364</v>
+        <v>9.899786379659654</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.690658795143275</v>
+        <v>9.782840909104888</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10.26741197851797</v>
+        <v>10.32750772311672</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11.90074012392981</v>
+        <v>12.78053924892239</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4502714265747456</v>
+        <v>0.4460136978334362</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3778339099958281</v>
+        <v>0.3736277424946177</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.420199626837672</v>
+        <v>0.4082057823747852</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.3852577181892873</v>
+        <v>0.4112742808417119</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>18.01340495913514</v>
+        <v>18.13924382754828</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>17.99748984614508</v>
+        <v>17.89197001094894</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>18.21361076070116</v>
+        <v>17.93311961663952</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>20.23459310442282</v>
+        <v>20.89645183667677</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.004428038308218</v>
+        <v>1.009838604917036</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8281020249476383</v>
+        <v>0.8237824001898766</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.8662622034792105</v>
+        <v>0.840398221647392</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.7725673713857347</v>
+        <v>0.8104485013678664</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>9.100730282076535</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13.44319728000243</v>
+        <v>13.44319728000242</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8630895545612547</v>
@@ -849,7 +849,7 @@
         <v>0.4128214197264399</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.415292057113045</v>
+        <v>0.4152920571130448</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>12.68147908713273</v>
+        <v>12.5278434055128</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.410107952272181</v>
+        <v>8.285131448536536</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5.005581191962897</v>
+        <v>4.276729873673246</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.735199502149017</v>
+        <v>8.6074527716953</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.5762508590813618</v>
+        <v>0.5629555668129397</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.356760148965889</v>
+        <v>0.3438817313670272</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2021808398886251</v>
+        <v>0.1775956228700897</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2489153691947019</v>
+        <v>0.2471680774038731</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>22.19440360832018</v>
+        <v>22.37379052952391</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.0651896094346</v>
+        <v>17.7489328619695</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>14.44183975110052</v>
+        <v>13.50429560772874</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.54290708460514</v>
+        <v>18.38553762283807</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.254566679647562</v>
+        <v>1.274345122556621</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.9190319079876216</v>
+        <v>0.9069967106062545</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7218274361848238</v>
+        <v>0.6851486146235775</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.6361056833102922</v>
+        <v>0.6292254908416411</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>10.7204134119496</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>13.17196498016609</v>
+        <v>13.17196498016608</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6404787225236597</v>
@@ -949,7 +949,7 @@
         <v>0.4038843221336923</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.3947038851270239</v>
+        <v>0.3947038851270236</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.877588896606685</v>
+        <v>9.13727326389396</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>9.294238556659518</v>
+        <v>9.501201040455271</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.797839979584547</v>
+        <v>6.150428143500296</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9.194557025858824</v>
+        <v>9.282344759678724</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4145789022470029</v>
+        <v>0.4231032038373543</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3252832643428826</v>
+        <v>0.3319636960970775</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2345579922191623</v>
+        <v>0.2220050725708449</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.2576765614481888</v>
+        <v>0.2612087022548054</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>16.60975574254089</v>
+        <v>16.54954548411314</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>17.89983205205485</v>
+        <v>18.02145057605097</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>15.11252604692453</v>
+        <v>14.5381205577218</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17.15615123056828</v>
+        <v>17.29042217584713</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9147132695208097</v>
+        <v>0.9081716912427044</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7498980072307971</v>
+        <v>0.7590049866109476</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6213514776750106</v>
+        <v>0.6029273907186717</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5604798062096452</v>
+        <v>0.5601017379482757</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>12.25404931600061</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13.84507328291944</v>
+        <v>13.84507328291943</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.6944307060345484</v>
@@ -1049,7 +1049,7 @@
         <v>0.5137612355914719</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4287387594793571</v>
+        <v>0.428738759479357</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>11.61448257315639</v>
+        <v>11.54035036629175</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>11.94748617635813</v>
+        <v>12.0070660174868</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>9.891735771404624</v>
+        <v>9.938620953766078</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>11.65618045609701</v>
+        <v>11.72196331910054</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.558456971142125</v>
+        <v>0.5511661661304204</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.468408631342777</v>
+        <v>0.4669861267593349</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3961111639622841</v>
+        <v>0.3957404182144609</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.3486687978580059</v>
+        <v>0.3490866996803231</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>15.69414905361409</v>
+        <v>15.90142994263494</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>16.62520699170365</v>
+        <v>16.48751344847118</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>14.52128500711948</v>
+        <v>14.37831685882074</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>16.03953280433106</v>
+        <v>15.8591686859326</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.8491599732600669</v>
+        <v>0.856267715632872</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7109067120664876</v>
+        <v>0.7135286238355802</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.634697123621167</v>
+        <v>0.6325275125920438</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.5159469507089938</v>
+        <v>0.510518457161782</v>
       </c>
     </row>
     <row r="19">
